--- a/biology/Zoologie/Eptesicus_andinus/Eptesicus_andinus.xlsx
+++ b/biology/Zoologie/Eptesicus_andinus/Eptesicus_andinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eptesicus andinus est une espèce de chauves-souris sud-américaines de la famille des Vespertilionidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Eptesicus andinus a une longueur totale entre 83 et 101 mm, une longueur de l'avant-bras entre 37,2 et 44,4 mm, une longueur de la queue entre 31 et 41 mm, une longueur du pied entre 8 et 11 mm, une longueur du oreilles entre 11 et 16 mm et un poids allant jusqu'à 10,4 g.
 La fourrure est longue, douce et soyeuse. Les parties dorsales varient du brun foncé au brun noirâtre, avec la base des poils claire, tandis que les parties ventrales sont plus claires, avec la base des poils noirâtre. Le museau est large avec deux masses glandulaires sur les côtés. Les yeux sont petits. Les oreilles sont de proportions moyennes, triangulaires et à bout pointu. Le tragus est long, étroit et arrondi. Les membranes des ailes sont noires ou brun noirâtre. L'extrémité de la longue queue s'étend légèrement au-delà de la large membrane interfémorale. Le calcar est plus long que le pied.
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est répandue dans les hautes terres andines du nord-ouest du Venezuela, de la Colombie, du Pérou et de l'Équateur jusqu'au nord de la Bolivie.
 Il vit entre 100 et 3 300 mètres d'altitude.
@@ -577,10 +593,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alimentation
-Eptesicus andinus est insectivore.
-Reproduction
-Des femelles en lactation ont été observées en mai, juillet et août tandis que d'autres femelles gravides ont été capturées au Pérou en août.
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eptesicus andinus est insectivore.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eptesicus_andinus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eptesicus_andinus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des femelles en lactation ont été observées en mai, juillet et août tandis que d'autres femelles gravides ont été capturées au Pérou en août.
 </t>
         </is>
       </c>
